--- a/static/files/tariff.xlsx
+++ b/static/files/tariff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freelance\onedev\Tatexkz\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365ACE6B-E2C1-4B11-83DA-1FAB20E0492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407213BD-E4FE-4D27-B6BD-35CEA004216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{080295E5-FFEA-4A6C-9842-E92DCFEE6BF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{080295E5-FFEA-4A6C-9842-E92DCFEE6BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Объединенные Арабские Эмираты</t>
   </si>
   <si>
-    <t>О-ва Кука</t>
-  </si>
-  <si>
     <t>Оман</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Свазиленд</t>
   </si>
   <si>
-    <t>Сейшельские о-ва</t>
-  </si>
-  <si>
     <t>Сенегал</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>Словения</t>
   </si>
   <si>
-    <t>Соломоновы о-ва</t>
-  </si>
-  <si>
     <t>Сомали</t>
   </si>
   <si>
@@ -238,9 +229,6 @@
     <t>Сьерра-Леоне</t>
   </si>
   <si>
-    <t>Сянган (Гонконг)</t>
-  </si>
-  <si>
     <t>Туркменистан</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
   </si>
   <si>
     <t>Танзания</t>
-  </si>
-  <si>
-    <t>Теркс и Кайкос</t>
   </si>
   <si>
     <t>Того</t>
@@ -289,9 +274,6 @@
     <t>Уругвай</t>
   </si>
   <si>
-    <t>Фарерские о-ва</t>
-  </si>
-  <si>
     <t>Фиджи</t>
   </si>
   <si>
@@ -301,9 +283,6 @@
     <t>Финляндия</t>
   </si>
   <si>
-    <t>Фолклендские (Мальвинские) о-ва</t>
-  </si>
-  <si>
     <t>Франция</t>
   </si>
   <si>
@@ -311,9 +290,6 @@
   </si>
   <si>
     <t>Хорватия</t>
-  </si>
-  <si>
-    <t>Центр. Африканская Республика</t>
   </si>
   <si>
     <t>Чад</t>
@@ -365,6 +341,30 @@
   </si>
   <si>
     <t>Исландия</t>
+  </si>
+  <si>
+    <t>Острова Кука</t>
+  </si>
+  <si>
+    <t>Сейшельские Острова</t>
+  </si>
+  <si>
+    <t>Соломоновы Острова</t>
+  </si>
+  <si>
+    <t>Гонконг</t>
+  </si>
+  <si>
+    <t>Тёркс и Кайкос</t>
+  </si>
+  <si>
+    <t>Фарерские острова</t>
+  </si>
+  <si>
+    <t>Фолклендские (Мальвинские) острова</t>
+  </si>
+  <si>
+    <t>Центральноафриканская Республика</t>
   </si>
 </sst>
 </file>
@@ -498,14 +498,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,6 +511,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,186 +841,186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>6</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>0.5</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>17323</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>36846</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>45989</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>47534</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>48606</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>48940</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>55703</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>18704</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>39340</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>47876</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>51322</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>51699</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>51843</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>61937</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>1.5</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>20754</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>44282</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>51642</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>57855</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>57643</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>57337</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>73140</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>22805</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>49224</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>55407</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>64387</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>63586</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>62832</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>84344</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>0.5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>17571</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>37366</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>46625</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>48193</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>48475</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>49617</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>56481</v>
       </c>
       <c r="I8" s="2">
@@ -1049,28 +1049,28 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>19247</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>40401</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>49105</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>52704</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>52239</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>53159</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>63650</v>
       </c>
       <c r="I9" s="2">
@@ -1099,28 +1099,28 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>1.5</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>21555</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>45693</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>53344</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>59980</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>58639</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>59349</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>75390</v>
       </c>
       <c r="I10" s="2">
@@ -1149,28 +1149,28 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>23864</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>50986</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>57582</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>67257</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>65040</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>65539</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>87130</v>
       </c>
       <c r="I11" s="2">
@@ -1199,28 +1199,28 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>2.5</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>27089</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>57333</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>64423</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>75527</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>73143</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>73961</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>98410</v>
       </c>
       <c r="I12" s="3">
@@ -1249,392 +1249,392 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>29873</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>63144</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>70618</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>82580</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>81050</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>82552</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>110193</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>3.5</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>32656</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>68955</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>76813</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>89633</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>88956</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>91144</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>121976</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>35439</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>74767</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>83007</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>96686</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>96862</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>99735</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>133759</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>4.5</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>38223</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>80578</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>89202</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>103739</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>104768</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>108327</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>145541</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>41006</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>86390</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>95397</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>110792</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>112675</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>116918</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>157324</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>5.5</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>43005</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>90348</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>100194</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>115541</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>117297</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>121540</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>163586</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>6</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>45003</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>94306</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>104990</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>120290</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>121919</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>126162</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>169847</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>6.5</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>47002</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>98264</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>109787</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>125040</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>126541</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <v>130784</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>176109</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>7</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>49000</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>102222</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>114584</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <v>129789</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>131163</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="9">
         <v>135406</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <v>182371</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>7.5</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>50999</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>106180</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>119380</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>134538</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>135785</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <v>140028</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <v>188632</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>8</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>52998</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>110138</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>124177</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>139288</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>140407</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="9">
         <v>144650</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <v>194894</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>8.5</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>54996</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>114096</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>128973</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>144037</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>145029</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <v>149272</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>201156</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>9</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>56995</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>118054</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>133770</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>148786</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>149651</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <v>153895</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>207417</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>9.5</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>58993</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>122012</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>138567</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>153536</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <v>154273</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="9">
         <v>158517</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>213679</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>60992</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>125970</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>143363</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <v>158285</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <v>158895</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="9">
         <v>163139</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="9">
         <v>219941</v>
       </c>
     </row>
@@ -4208,35 +4208,35 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <f t="shared" ref="A104:A108" si="104">A103+$I$10</f>
+        <f t="shared" ref="A104:A106" si="104">A103+$I$10</f>
         <v>67</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" ref="B104:B108" si="105">B103+$J$10</f>
+        <f t="shared" ref="B104:B106" si="105">B103+$J$10</f>
         <v>198517</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" ref="C104:C108" si="106">C103+$K$10</f>
+        <f t="shared" ref="C104:C106" si="106">C103+$K$10</f>
         <v>436220</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" ref="D104:D108" si="107">D103+$L$10</f>
+        <f t="shared" ref="D104:D106" si="107">D103+$L$10</f>
         <v>473147</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" ref="E104:E108" si="108">E103+$M$10</f>
+        <f t="shared" ref="E104:E106" si="108">E103+$M$10</f>
         <v>493417</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" ref="F104:F108" si="109">F103+$N$10</f>
+        <f t="shared" ref="F104:F106" si="109">F103+$N$10</f>
         <v>530100</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" ref="G104:G108" si="110">G103+$O$10</f>
+        <f t="shared" ref="G104:G106" si="110">G103+$O$10</f>
         <v>592870</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" ref="H104:H108" si="111">H103+$P$10</f>
+        <f t="shared" ref="H104:H106" si="111">H103+$P$10</f>
         <v>854540</v>
       </c>
     </row>
@@ -12165,21 +12165,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="13.109375" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -12312,16 +12312,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -20916,7 +20916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D24012-AAF6-422E-8645-BF3E24AF65D6}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -21723,39 +21723,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21703830-B737-4CDE-905C-93B2E9FBA1A3}">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>7</v>
@@ -21763,7 +21763,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -21779,23 +21779,23 @@
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -21803,7 +21803,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5">
         <v>7</v>
@@ -21811,7 +21811,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
@@ -21819,7 +21819,7 @@
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -21827,7 +21827,7 @@
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>7</v>
@@ -21843,23 +21843,23 @@
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5">
         <v>7</v>
@@ -21867,15 +21867,15 @@
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5">
         <v>7</v>
@@ -21883,39 +21883,39 @@
     </row>
     <row r="20" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5">
         <v>6</v>
@@ -21923,7 +21923,7 @@
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5">
         <v>6</v>
@@ -21931,7 +21931,7 @@
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5">
         <v>7</v>
@@ -21939,23 +21939,23 @@
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5">
         <v>7</v>
@@ -21963,7 +21963,7 @@
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="5">
         <v>7</v>
@@ -21971,39 +21971,39 @@
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B32" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -22011,7 +22011,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5">
         <v>3</v>
@@ -22027,7 +22027,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="5">
         <v>7</v>
@@ -22035,47 +22035,47 @@
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -22083,7 +22083,7 @@
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" s="5">
         <v>7</v>
@@ -22091,23 +22091,23 @@
     </row>
     <row r="46" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>7</v>
@@ -22115,31 +22115,31 @@
     </row>
     <row r="49" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>5</v>
@@ -22147,7 +22147,7 @@
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5">
         <v>6</v>
@@ -22155,7 +22155,7 @@
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5">
         <v>3</v>
@@ -22163,15 +22163,15 @@
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>7</v>
@@ -22179,7 +22179,7 @@
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5">
         <v>7</v>
@@ -22187,7 +22187,7 @@
     </row>
     <row r="58" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5">
         <v>7</v>
@@ -22195,15 +22195,15 @@
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5">
         <v>7</v>
@@ -22211,23 +22211,23 @@
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5">
         <v>5</v>
@@ -22235,7 +22235,7 @@
     </row>
     <row r="64" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5">
         <v>7</v>
@@ -22243,7 +22243,7 @@
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B65" s="5">
         <v>7</v>
@@ -22251,7 +22251,7 @@
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5">
         <v>5</v>
@@ -22259,7 +22259,7 @@
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B67" s="5">
         <v>5</v>
@@ -22267,23 +22267,23 @@
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B68" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B70" s="5">
         <v>7</v>
@@ -22291,23 +22291,23 @@
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B71" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B72" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B73" s="5">
         <v>7</v>
@@ -22315,7 +22315,7 @@
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B74" s="5">
         <v>6</v>
@@ -22323,23 +22323,23 @@
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B76" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B77" s="5">
         <v>1</v>
@@ -22347,23 +22347,23 @@
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B78" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B79" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B80" s="5">
         <v>7</v>
@@ -22371,15 +22371,15 @@
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B81" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B82" s="5">
         <v>5</v>
@@ -22387,15 +22387,15 @@
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B83" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B84" s="5">
         <v>7</v>
@@ -22403,15 +22403,15 @@
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B85" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B86" s="5">
         <v>7</v>
@@ -22419,15 +22419,15 @@
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B87" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B88" s="5">
         <v>7</v>
@@ -22435,15 +22435,15 @@
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B89" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B90" s="5">
         <v>3</v>
@@ -22451,7 +22451,7 @@
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B91" s="5">
         <v>2</v>
@@ -22459,7 +22459,7 @@
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B92" s="5">
         <v>7</v>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B93" s="5">
         <v>2</v>
@@ -22475,7 +22475,7 @@
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B94" s="5">
         <v>3</v>
@@ -22483,7 +22483,7 @@
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B95" s="5">
         <v>5</v>
@@ -22491,15 +22491,15 @@
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B96" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B97" s="5">
         <v>7</v>
@@ -22507,15 +22507,15 @@
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B98" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B99" s="5">
         <v>2</v>
@@ -22523,7 +22523,7 @@
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B100" s="5">
         <v>7</v>
@@ -22531,7 +22531,7 @@
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B101" s="5">
         <v>7</v>
@@ -22539,7 +22539,7 @@
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B102" s="5">
         <v>7</v>
@@ -22547,7 +22547,7 @@
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B103" s="5">
         <v>5</v>
@@ -22555,7 +22555,7 @@
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B104" s="5">
         <v>3</v>
@@ -22563,33 +22563,21 @@
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B105" s="5">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A105">
+    <sortCondition ref="A1:A105"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE20F5A7E595984EBD12F736DC67A026" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a8d72f5eff23bc8211478ff034773845">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="144c5037-28a2-44b3-98cb-9f66ef27de72" xmlns:ns4="00a95af1-c38c-4bd8-8f23-23fa4597d151" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c437840d0a4eba28798c4d84f12e23d6" ns3:_="" ns4:_="">
     <xsd:import namespace="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
@@ -22792,32 +22780,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F37117-B2B6-4D01-9881-24872FAE311C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="00a95af1-c38c-4bd8-8f23-23fa4597d151"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D97AE0-8752-4B0A-9C98-0F7DFF1EF89E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8620F316-03FC-446A-9469-0CAAF4D587AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22834,4 +22812,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D97AE0-8752-4B0A-9C98-0F7DFF1EF89E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F37117-B2B6-4D01-9881-24872FAE311C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="00a95af1-c38c-4bd8-8f23-23fa4597d151"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/files/tariff.xlsx
+++ b/static/files/tariff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freelance\onedev\Tatexkz\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407213BD-E4FE-4D27-B6BD-35CEA004216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD28976C-21A8-4D6D-82FB-C08DB0DBF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{080295E5-FFEA-4A6C-9842-E92DCFEE6BF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{080295E5-FFEA-4A6C-9842-E92DCFEE6BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:P337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2940,7 +2940,7 @@
         <v>255963</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="60"/>
+        <f>E65+$M$9</f>
         <v>273740</v>
       </c>
       <c r="F66" s="4">
@@ -12160,7 +12160,7 @@
   <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20914,803 +20914,811 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D24012-AAF6-422E-8645-BF3E24AF65D6}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B1">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B3">
-        <v>4600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>5400</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B5">
-        <v>6200</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>7000</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B7">
-        <v>7800</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>8600</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B9">
-        <v>9400</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>10200</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="B11">
-        <v>11000</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>11800</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="B13">
-        <v>12600</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>13400</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="B15">
-        <v>14200</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>15000</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="B17">
-        <v>15800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>16600</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="B19">
-        <v>17400</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>18200</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="B21">
-        <v>19000</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>19800</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B23">
-        <v>20600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>21400</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="B25">
-        <v>22200</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>23000</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B27">
-        <v>23800</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>24600</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="B29">
-        <v>25400</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>26200</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="B31">
-        <v>27000</v>
+        <v>26200</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>27800</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="B33">
-        <v>28600</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>29400</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="B35">
-        <v>30200</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>31000</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="B37">
-        <v>31800</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>32600</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="B39">
-        <v>33400</v>
+        <v>32600</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>34200</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="B41">
-        <v>35000</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>35800</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="B43">
-        <v>36600</v>
+        <v>35800</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>37400</v>
+        <v>36600</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="B45">
-        <v>38200</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>39000</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="B47">
-        <v>39800</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>40600</v>
+        <v>39800</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="B49">
-        <v>41400</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="B50">
-        <v>42200</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="B51">
-        <v>43000</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>43800</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="B53">
-        <v>44600</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>45400</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="B55">
-        <v>46200</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>47000</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="B57">
-        <v>47800</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>48600</v>
+        <v>47800</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="B59">
-        <v>49400</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>50200</v>
+        <v>49400</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="B61">
-        <v>51000</v>
+        <v>50200</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="B62">
-        <v>51800</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="B63">
-        <v>52600</v>
+        <v>51800</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="B64">
-        <v>53400</v>
+        <v>52600</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="B65">
-        <v>54200</v>
+        <v>53400</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="B66">
-        <v>55000</v>
+        <v>54200</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="B67">
-        <v>55800</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="B68">
-        <v>56600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="B69">
-        <v>57400</v>
+        <v>56600</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="B70">
-        <v>58200</v>
+        <v>57400</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="B71">
-        <v>59000</v>
+        <v>58200</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="B72">
-        <v>59800</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="B73">
-        <v>60600</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="B74">
-        <v>61400</v>
+        <v>60600</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="B75">
-        <v>62200</v>
+        <v>61400</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="B76">
-        <v>63000</v>
+        <v>62200</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="B77">
-        <v>63800</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="B78">
-        <v>64600</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="B79">
-        <v>65400</v>
+        <v>64600</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="B80">
-        <v>66200</v>
+        <v>65400</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="B81">
-        <v>67000</v>
+        <v>66200</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="B82">
-        <v>67800</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="B83">
-        <v>68600</v>
+        <v>67800</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="B84">
-        <v>69400</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="B85">
-        <v>70200</v>
+        <v>69400</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="B86">
-        <v>71000</v>
+        <v>70200</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="B87">
-        <v>71800</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>44.5</v>
+        <v>44</v>
       </c>
       <c r="B88">
-        <v>72600</v>
+        <v>71800</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>45</v>
+        <v>44.5</v>
       </c>
       <c r="B89">
-        <v>73400</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="B90">
-        <v>74200</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="B91">
-        <v>75000</v>
+        <v>74200</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="B92">
-        <v>75800</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="B93">
-        <v>76600</v>
+        <v>75800</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="B94">
-        <v>77400</v>
+        <v>76600</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="B95">
-        <v>78200</v>
+        <v>77400</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="B96">
-        <v>79000</v>
+        <v>78200</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="B97">
-        <v>79800</v>
+        <v>79000</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="B98">
-        <v>80600</v>
+        <v>79800</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
+        <v>49.5</v>
+      </c>
+      <c r="B99">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>50</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>81400</v>
       </c>
     </row>
@@ -21723,11 +21731,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21703830-B737-4CDE-905C-93B2E9FBA1A3}">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
@@ -21985,7 +21996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
@@ -22121,7 +22132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
@@ -22578,6 +22589,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE20F5A7E595984EBD12F736DC67A026" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a8d72f5eff23bc8211478ff034773845">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="144c5037-28a2-44b3-98cb-9f66ef27de72" xmlns:ns4="00a95af1-c38c-4bd8-8f23-23fa4597d151" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c437840d0a4eba28798c4d84f12e23d6" ns3:_="" ns4:_="">
     <xsd:import namespace="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
@@ -22780,22 +22806,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F37117-B2B6-4D01-9881-24872FAE311C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="00a95af1-c38c-4bd8-8f23-23fa4597d151"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D97AE0-8752-4B0A-9C98-0F7DFF1EF89E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8620F316-03FC-446A-9469-0CAAF4D587AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22812,29 +22848,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D97AE0-8752-4B0A-9C98-0F7DFF1EF89E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F37117-B2B6-4D01-9881-24872FAE311C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="00a95af1-c38c-4bd8-8f23-23fa4597d151"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/static/files/tariff.xlsx
+++ b/static/files/tariff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freelance\onedev\Tatexkz\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD28976C-21A8-4D6D-82FB-C08DB0DBF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1128913D-FDFD-455E-9FB4-1448C58908EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{080295E5-FFEA-4A6C-9842-E92DCFEE6BF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="3" xr2:uid="{080295E5-FFEA-4A6C-9842-E92DCFEE6BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="230">
   <si>
     <t>Кг</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Реюньон</t>
-  </si>
-  <si>
-    <t>Россия</t>
   </si>
   <si>
     <t>Руанда</t>
@@ -343,28 +340,394 @@
     <t>Исландия</t>
   </si>
   <si>
-    <t>Острова Кука</t>
+    <t>Австралия</t>
   </si>
   <si>
-    <t>Сейшельские Острова</t>
+    <t>Австрия</t>
   </si>
   <si>
-    <t>Соломоновы Острова</t>
+    <t>Азербайджан</t>
   </si>
   <si>
-    <t>Гонконг</t>
+    <t>Албания</t>
   </si>
   <si>
-    <t>Тёркс и Кайкос</t>
+    <t>Алжир</t>
   </si>
   <si>
-    <t>Фарерские острова</t>
+    <t>Ангилья</t>
   </si>
   <si>
-    <t>Фолклендские (Мальвинские) острова</t>
+    <t>Ангола</t>
   </si>
   <si>
-    <t>Центральноафриканская Республика</t>
+    <t>Андорра</t>
+  </si>
+  <si>
+    <t>Антигуа</t>
+  </si>
+  <si>
+    <t>Аомынь (Макао)</t>
+  </si>
+  <si>
+    <t>Аргентина</t>
+  </si>
+  <si>
+    <t>Армения</t>
+  </si>
+  <si>
+    <t>Аруба</t>
+  </si>
+  <si>
+    <t>Афганистан</t>
+  </si>
+  <si>
+    <t>Багамские острова</t>
+  </si>
+  <si>
+    <t>Бангладеш</t>
+  </si>
+  <si>
+    <t>Барбадос</t>
+  </si>
+  <si>
+    <t>Бахрейн</t>
+  </si>
+  <si>
+    <t>Беларусь</t>
+  </si>
+  <si>
+    <t>Белиз</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Бенин</t>
+  </si>
+  <si>
+    <t>Бермудские острова</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Боливия</t>
+  </si>
+  <si>
+    <t>Бонэр</t>
+  </si>
+  <si>
+    <t>Босния и Герцеговина</t>
+  </si>
+  <si>
+    <t>Ботсвана</t>
+  </si>
+  <si>
+    <t>Бразилия</t>
+  </si>
+  <si>
+    <t>Бруней</t>
+  </si>
+  <si>
+    <t>Буркина-Фасо</t>
+  </si>
+  <si>
+    <t>Бурунди</t>
+  </si>
+  <si>
+    <t>Бутан</t>
+  </si>
+  <si>
+    <t>Вануату</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Венесуэла</t>
+  </si>
+  <si>
+    <t>Венгрия</t>
+  </si>
+  <si>
+    <t>Виргинские о-ва (Брит.)</t>
+  </si>
+  <si>
+    <t>Виргинские о-ва (США)</t>
+  </si>
+  <si>
+    <t>Восточное Самоа (США)</t>
+  </si>
+  <si>
+    <t>Восточный Тимор</t>
+  </si>
+  <si>
+    <t>Вьетнам</t>
+  </si>
+  <si>
+    <t>Габон</t>
+  </si>
+  <si>
+    <t>Гаити</t>
+  </si>
+  <si>
+    <t>Гайана (Брит.)</t>
+  </si>
+  <si>
+    <t>Гамбия</t>
+  </si>
+  <si>
+    <t>Гана</t>
+  </si>
+  <si>
+    <t>Гваделупа</t>
+  </si>
+  <si>
+    <t>Гватемала</t>
+  </si>
+  <si>
+    <t>Гвинея</t>
+  </si>
+  <si>
+    <t>Гвинея-Бисау</t>
+  </si>
+  <si>
+    <t>Германия</t>
+  </si>
+  <si>
+    <t>Гернси (Нормандские о-ва)</t>
+  </si>
+  <si>
+    <t>Гибралтар</t>
+  </si>
+  <si>
+    <t>Гондурас</t>
+  </si>
+  <si>
+    <t>Гренада</t>
+  </si>
+  <si>
+    <t>Гренландия</t>
+  </si>
+  <si>
+    <t>Греция</t>
+  </si>
+  <si>
+    <t>Грузия</t>
+  </si>
+  <si>
+    <t>Гуам</t>
+  </si>
+  <si>
+    <t>Дания</t>
+  </si>
+  <si>
+    <t>Джерси (Нормандские о-ва)</t>
+  </si>
+  <si>
+    <t>Джибути</t>
+  </si>
+  <si>
+    <t>Доминика</t>
+  </si>
+  <si>
+    <t>Доминиканская республика</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Замбия</t>
+  </si>
+  <si>
+    <t>Западное Самоа</t>
+  </si>
+  <si>
+    <t>Зимбабве</t>
+  </si>
+  <si>
+    <t>Израиль</t>
+  </si>
+  <si>
+    <t>Индия</t>
+  </si>
+  <si>
+    <t>Индонезия</t>
+  </si>
+  <si>
+    <t>Иордания</t>
+  </si>
+  <si>
+    <t>Иран</t>
+  </si>
+  <si>
+    <t>Ирак</t>
+  </si>
+  <si>
+    <t>Ирландия</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>Йемен</t>
+  </si>
+  <si>
+    <t>Кабо-Верде</t>
+  </si>
+  <si>
+    <t>Кайман</t>
+  </si>
+  <si>
+    <t>Камбоджа</t>
+  </si>
+  <si>
+    <t>Камерун</t>
+  </si>
+  <si>
+    <t>Канада</t>
+  </si>
+  <si>
+    <t>Канарские острова</t>
+  </si>
+  <si>
+    <t>Катар</t>
+  </si>
+  <si>
+    <t>Кения</t>
+  </si>
+  <si>
+    <t>Кипр</t>
+  </si>
+  <si>
+    <t>Кирибати</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>Колумбия</t>
+  </si>
+  <si>
+    <t>Коморские о-ва</t>
+  </si>
+  <si>
+    <t>Конго</t>
+  </si>
+  <si>
+    <t>Конго, Демократ. республика</t>
+  </si>
+  <si>
+    <t>Корея (КНДР)</t>
+  </si>
+  <si>
+    <t>Коста-Рика</t>
+  </si>
+  <si>
+    <t>Кот-д'Ивуар</t>
+  </si>
+  <si>
+    <t>Куба</t>
+  </si>
+  <si>
+    <t>Кувейт</t>
+  </si>
+  <si>
+    <t>Кыргызстан</t>
+  </si>
+  <si>
+    <t>Кюрасао</t>
+  </si>
+  <si>
+    <t>Лаос</t>
+  </si>
+  <si>
+    <t>Латвия</t>
+  </si>
+  <si>
+    <t>Лесото</t>
+  </si>
+  <si>
+    <t>Либерия</t>
+  </si>
+  <si>
+    <t>Ливан</t>
+  </si>
+  <si>
+    <t>Ливия</t>
+  </si>
+  <si>
+    <t>Литва</t>
+  </si>
+  <si>
+    <t>Лихтенштейн</t>
+  </si>
+  <si>
+    <t>Люксембург</t>
+  </si>
+  <si>
+    <t>Маврикий</t>
+  </si>
+  <si>
+    <t>Мавритания</t>
+  </si>
+  <si>
+    <t>Мадагаскар</t>
+  </si>
+  <si>
+    <t>Македония</t>
+  </si>
+  <si>
+    <t>Малави</t>
+  </si>
+  <si>
+    <t>Малайзия</t>
+  </si>
+  <si>
+    <t>Мали</t>
+  </si>
+  <si>
+    <t>Мальдивские о-ва</t>
+  </si>
+  <si>
+    <t>Мальта</t>
+  </si>
+  <si>
+    <t>Марокко</t>
+  </si>
+  <si>
+    <t>Мартиника</t>
+  </si>
+  <si>
+    <t>О-ва Кука</t>
+  </si>
+  <si>
+    <t>Российская Федерация</t>
+  </si>
+  <si>
+    <t>Сейшельские о-ва</t>
+  </si>
+  <si>
+    <t>Соломоновы о-ва</t>
+  </si>
+  <si>
+    <t>Сянган (Гонконг)</t>
+  </si>
+  <si>
+    <t>Теркс и Кайкос</t>
+  </si>
+  <si>
+    <t>Фарерские о-ва</t>
+  </si>
+  <si>
+    <t>Фолклендские (Мальвинские) о-ва</t>
+  </si>
+  <si>
+    <t>Центр. Африканская Республика</t>
   </si>
 </sst>
 </file>
@@ -405,7 +768,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -443,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -467,13 +830,62 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,9 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,6 +927,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,186 +1262,186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>0.5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>17323</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>36846</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>45989</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>47534</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>48606</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>48940</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>55703</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>18704</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>39340</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>47876</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>51322</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>51699</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>51843</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>61937</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1.5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>20754</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>44282</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>51642</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>57855</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>57643</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>57337</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>73140</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>22805</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>49224</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>55407</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>64387</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>63586</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>62832</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>84344</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>0.5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>17571</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>37366</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>46625</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>48193</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>48475</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>49617</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>56481</v>
       </c>
       <c r="I8" s="2">
@@ -1049,28 +1470,28 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>19247</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>40401</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>49105</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>52704</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>52239</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>53159</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>63650</v>
       </c>
       <c r="I9" s="2">
@@ -1099,28 +1520,28 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>1.5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>21555</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>45693</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>53344</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>59980</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>58639</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>59349</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>75390</v>
       </c>
       <c r="I10" s="2">
@@ -1149,28 +1570,28 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>23864</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>50986</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>57582</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>67257</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>65040</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>65539</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>87130</v>
       </c>
       <c r="I11" s="2">
@@ -1199,28 +1620,28 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2.5</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>27089</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>57333</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>64423</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>75527</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>73143</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>73961</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>98410</v>
       </c>
       <c r="I12" s="3">
@@ -1249,392 +1670,392 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>29873</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>63144</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>70618</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>82580</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>81050</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>82552</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>110193</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>3.5</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>32656</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>68955</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>76813</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>89633</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>88956</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>91144</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>121976</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>35439</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>74767</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>83007</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>96686</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>96862</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>99735</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>133759</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>4.5</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>38223</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>80578</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>89202</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>103739</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>104768</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>108327</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>145541</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>41006</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>86390</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>95397</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>110792</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>112675</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>116918</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>157324</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>5.5</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>43005</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>90348</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>100194</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>115541</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>117297</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>121540</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>163586</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>6</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>45003</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>94306</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>104990</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>120290</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>121919</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>126162</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>169847</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>6.5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>47002</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>98264</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>109787</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>125040</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>126541</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>130784</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>176109</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>7</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>49000</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>102222</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>114584</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>129789</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>131163</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>135406</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>182371</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>7.5</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>50999</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>106180</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>119380</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>134538</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>135785</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>140028</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>188632</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>52998</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>110138</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>124177</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>139288</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>140407</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>144650</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>194894</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>8.5</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>54996</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>114096</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>128973</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>144037</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>145029</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>149272</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>201156</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>9</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>56995</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>118054</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>133770</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>148786</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>149651</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>153895</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>207417</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>9.5</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>58993</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>122012</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>138567</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>153536</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>154273</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>158517</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>213679</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>10</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>60992</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>125970</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>143363</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>158285</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>158895</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>163139</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>219941</v>
       </c>
     </row>
@@ -2872,7 +3293,7 @@
         <v>249685</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" ref="E64:E66" si="60">E63+$M$9</f>
+        <f t="shared" ref="E64:E65" si="60">E63+$M$9</f>
         <v>267972</v>
       </c>
       <c r="F64" s="4">
@@ -12165,21 +12586,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="13.109375" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -12312,16 +12733,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -20916,7 +21337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D24012-AAF6-422E-8645-BF3E24AF65D6}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -21729,10 +22150,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21703830-B737-4CDE-905C-93B2E9FBA1A3}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21741,869 +22162,1820 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="15">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+    </row>
+    <row r="85" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="15">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="92" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="15">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="15">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B120" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5">
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5">
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5">
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="5">
+    <row r="140" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="141" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="143" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5">
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="149" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5">
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="5">
+    <row r="152" spans="1:2" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B156" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B161" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B162" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B163" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B168" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B175" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B177" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B182" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B183" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B184" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B186" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B188" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B190" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B191" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B192" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B193" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B194" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B195" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B196" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B197" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B198" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B199" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B200" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B201" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B202" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B203" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B204" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B206" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B208" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B209" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B210" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B211" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B212" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B213" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B214" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B215" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B216" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B217" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B218" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B219" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B220" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B221" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B222" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B223" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B224" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B225" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B226" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B82" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B84" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="5">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A105">
-    <sortCondition ref="A1:A105"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE20F5A7E595984EBD12F736DC67A026" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a8d72f5eff23bc8211478ff034773845">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="144c5037-28a2-44b3-98cb-9f66ef27de72" xmlns:ns4="00a95af1-c38c-4bd8-8f23-23fa4597d151" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c437840d0a4eba28798c4d84f12e23d6" ns3:_="" ns4:_="">
     <xsd:import namespace="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
@@ -22806,32 +24178,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F37117-B2B6-4D01-9881-24872FAE311C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="00a95af1-c38c-4bd8-8f23-23fa4597d151"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D97AE0-8752-4B0A-9C98-0F7DFF1EF89E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8620F316-03FC-446A-9469-0CAAF4D587AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22848,4 +24210,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D97AE0-8752-4B0A-9C98-0F7DFF1EF89E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F37117-B2B6-4D01-9881-24872FAE311C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="144c5037-28a2-44b3-98cb-9f66ef27de72"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="00a95af1-c38c-4bd8-8f23-23fa4597d151"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>